--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tasks juggle" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Repeated Tasks" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -103,10 +104,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">change log.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">6
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Doc / Clean code </t>
+  </si>
+  <si>
     <t xml:space="preserve">7
 </t>
   </si>
@@ -114,8 +121,14 @@
     <t xml:space="preserve">Release Ajax</t>
   </si>
   <si>
+    <t xml:space="preserve">User Doc</t>
+  </si>
+  <si>
     <t xml:space="preserve">8
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release →…</t>
   </si>
   <si>
     <t xml:space="preserve">9
@@ -308,7 +321,7 @@
   <dimension ref="A3:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,102 +421,114 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="8"/>
+      <c r="I9" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8"/>
+      <c r="I10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8"/>
+      <c r="I11" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -516,4 +541,46 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -32,19 +32,22 @@
     <t xml:space="preserve">Release / Install</t>
   </si>
   <si>
-    <t xml:space="preserve">Config-uration move</t>
+    <t xml:space="preserve">Config move</t>
   </si>
   <si>
     <t xml:space="preserve">Site: View gallery</t>
   </si>
   <si>
-    <t xml:space="preserve">Site: View Slideshow</t>
+    <t xml:space="preserve">Site: View Slide show</t>
   </si>
   <si>
     <t xml:space="preserve">J!4</t>
   </si>
   <si>
     <t xml:space="preserve">Turn/Flip … image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression</t>
   </si>
   <si>
     <t xml:space="preserve">RSG2 Web page</t>
@@ -67,6 +70,9 @@
     <t xml:space="preserve">b) Image editor </t>
   </si>
   <si>
+    <t xml:space="preserve">Walk trough all pages without error</t>
+  </si>
+  <si>
     <t xml:space="preserve">Upgrade to PHP 7</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t xml:space="preserve">a) After upload</t>
   </si>
   <si>
+    <t xml:space="preserve">Texts on first page, “Out new homepage“</t>
+  </si>
+  <si>
     <t xml:space="preserve">3
 </t>
   </si>
@@ -93,6 +102,9 @@
     <t xml:space="preserve">Improve layout of user information -&gt; update</t>
   </si>
   <si>
+    <t xml:space="preserve">Tell new version → drag / drop</t>
+  </si>
+  <si>
     <t xml:space="preserve">4
 </t>
   </si>
@@ -100,53 +112,59 @@
     <t xml:space="preserve">Improve layout of user information -&gt; button for RSGallery2 jump on both update and install</t>
   </si>
   <si>
+    <t xml:space="preserve">Update download links in forum</t>
+  </si>
+  <si>
     <t xml:space="preserve">5
 </t>
   </si>
   <si>
+    <t xml:space="preserve">6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Ajax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test on server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">change log.php</t>
   </si>
   <si>
-    <t xml:space="preserve">6
+    <t xml:space="preserve">10
 </t>
   </si>
   <si>
     <t xml:space="preserve">Doc / Clean code </t>
   </si>
   <si>
-    <t xml:space="preserve">7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release Ajax</t>
+    <t xml:space="preserve">11
+</t>
   </si>
   <si>
     <t xml:space="preserve">User Doc</t>
   </si>
   <si>
-    <t xml:space="preserve">8
+    <t xml:space="preserve">12
 </t>
   </si>
   <si>
     <t xml:space="preserve">Release →…</t>
   </si>
   <si>
-    <t xml:space="preserve">9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">13
 </t>
   </si>
@@ -177,6 +195,51 @@
   <si>
     <t xml:space="preserve">20
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use JedChecker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update change log.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change log.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Sql files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Version info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Doc →home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check in to github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create release zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create github release (add zip)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add info to RSG2 Update Server xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert update in JED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info on home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info on forum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update download links in forum first page</t>
   </si>
 </sst>
 </file>
@@ -186,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -209,6 +272,12 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -216,7 +285,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <strike val="true"/>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -264,7 +342,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,28 +355,36 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -310,6 +396,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -318,23 +464,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:K23"/>
+  <dimension ref="A3:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="7" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="7" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="3" s="5" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -366,171 +512,203 @@
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="I4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="F4" s="7"/>
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="5" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="I5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="F5" s="7"/>
+      <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="J5" s="8"/>
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" s="6" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="6" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="I8" s="6" t="s">
+      <c r="F6" s="7"/>
+      <c r="L6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+    <row r="7" s="3" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="I9" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
+      <c r="F7" s="7"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="L7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="I10" s="6" t="s">
+      <c r="D8" s="0"/>
+      <c r="F8" s="7"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+      <c r="D9" s="0"/>
+      <c r="F9" s="7"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="I11" s="0" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
+      <c r="F10" s="7"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
+      <c r="F11" s="7"/>
+      <c r="I11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="s">
+      <c r="F12" s="7"/>
+      <c r="I12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="s">
+    </row>
+    <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="s">
+      <c r="F13" s="7"/>
+      <c r="I13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="s">
+    </row>
+    <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="s">
+      <c r="F14" s="7"/>
+      <c r="I14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="s">
+      <c r="F15" s="7"/>
+      <c r="I15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
+    </row>
+    <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" s="6" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="s">
+      <c r="D16" s="0"/>
+      <c r="F16" s="7"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -548,31 +726,245 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:B5"/>
+  <dimension ref="A3:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="7" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="F18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="K23" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -21,11 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ajax Upload</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
   <si>
     <t xml:space="preserve">1
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit image → double click on image</t>
   </si>
   <si>
     <t xml:space="preserve">Test FTP on server</t>
@@ -80,6 +89,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">On Drag/drop upload vertical images same size ==&gt; image Properties not</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test zip on server</t>
   </si>
   <si>
@@ -96,6 +108,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Galleries List: sort by count not working</t>
+  </si>
+  <si>
     <t xml:space="preserve">Upload model: Check which functions are still used</t>
   </si>
   <si>
@@ -212,7 +227,7 @@
     <t xml:space="preserve">Update Sql files</t>
   </si>
   <si>
-    <t xml:space="preserve">Update Version info</t>
+    <t xml:space="preserve">Update Version info and date in rsgallery2.xml</t>
   </si>
   <si>
     <t xml:space="preserve">User Doc →home page</t>
@@ -249,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -280,6 +295,13 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -342,7 +364,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,15 +393,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,31 +490,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:L23"/>
+  <dimension ref="A3:N23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="7" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="9" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="3" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="27.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -515,200 +542,252 @@
       <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="I4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="8"/>
+      <c r="K4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="L5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="K5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="N6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="57.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="L7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="N7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="F8" s="7"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="0"/>
+      <c r="H8" s="8"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="F9" s="7"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="0"/>
+      <c r="H9" s="8"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="I11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="K11" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="I12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="K12" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="I13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="K13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="I14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="H14" s="8"/>
+      <c r="K14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="I15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="H15" s="8"/>
+      <c r="K15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="F16" s="7"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-    </row>
-    <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="0"/>
+      <c r="H16" s="8"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="H23" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -729,7 +808,7 @@
   <dimension ref="A3:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -743,228 +822,228 @@
   </cols>
   <sheetData>
     <row r="3" s="5" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="K4" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="K5" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="K6" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="K7" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="K9" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="K10" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="K11" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="K12" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="K13" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="K14" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="K15" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="K16" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="K17" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="F18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="K18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="K19" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="K20" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="K21" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="K22" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="K23" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="K23" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -69,13 +69,19 @@
     <t xml:space="preserve">Edit image → double click on image</t>
   </si>
   <si>
+    <t xml:space="preserve">Rename Maintenance “Consolidate image Database”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test FTP on server</t>
   </si>
   <si>
-    <t xml:space="preserve">New ICON , better Information pre/post ..
+    <t xml:space="preserve">New ICON , better Information pre/post 
 TaskInstall.170121 .png</t>
   </si>
   <si>
+    <t xml:space="preserve">Repair Zone: image Db first element</t>
+  </si>
+  <si>
     <t xml:space="preserve">b) Image editor </t>
   </si>
   <si>
@@ -92,12 +98,18 @@
     <t xml:space="preserve">On Drag/drop upload vertical images same size ==&gt; image Properties not</t>
   </si>
   <si>
+    <t xml:space="preserve">Check for single left over installation files</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test zip on server</t>
   </si>
   <si>
     <t xml:space="preserve">Improve layout of user information -&gt; first install</t>
   </si>
   <si>
+    <t xml:space="preserve">Copy old to new configuration data ==&gt; Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">a) After upload</t>
   </si>
   <si>
@@ -117,6 +129,9 @@
     <t xml:space="preserve">Improve layout of user information -&gt; update</t>
   </si>
   <si>
+    <t xml:space="preserve">Save and copy to old configuration data ==&gt; Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tell new version → drag / drop</t>
   </si>
   <si>
@@ -127,6 +142,9 @@
     <t xml:space="preserve">Improve layout of user information -&gt; button for RSGallery2 jump on both update and install</t>
   </si>
   <si>
+    <t xml:space="preserve">Save to text file ==&gt; Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">Update download links in forum</t>
   </si>
   <si>
@@ -134,10 +152,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Read from text file ==&gt; Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">6
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Save (old) and copy to new configuration data ==&gt; Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">7
 </t>
   </si>
@@ -145,15 +169,24 @@
     <t xml:space="preserve">Release Ajax</t>
   </si>
   <si>
+    <t xml:space="preserve">Save (old) to text file</t>
+  </si>
+  <si>
     <t xml:space="preserve">8
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Read (old) from text file ==&gt; Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test on server</t>
   </si>
   <si>
     <t xml:space="preserve">9
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove_OldConfigData ask for confirmation ==&gt; Test</t>
   </si>
   <si>
     <t xml:space="preserve">change log.php</t>
@@ -301,7 +334,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFCE181E"/>
+      <color rgb="FF0066B3"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -397,12 +430,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -446,7 +479,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0066B3"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -492,8 +525,8 @@
   </sheetPr>
   <dimension ref="A3:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,238 +589,269 @@
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="K4" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="K4" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="K5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="K5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8"/>
       <c r="N5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="N6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="57.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="N7" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="0"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="F9" s="0"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="9"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="K11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="K11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="H12" s="8"/>
-      <c r="K12" s="9" t="s">
-        <v>41</v>
+      <c r="G12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="K12" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="9"/>
       <c r="K13" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="K14" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="9"/>
       <c r="K15" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="F16" s="0"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="9"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -827,7 +891,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -837,212 +901,212 @@
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="I4" s="8"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="I5" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="I5" s="8"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="I6" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="I6" s="8"/>
       <c r="K6" s="10"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="I7" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="I7" s="8"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="I8" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="K8" s="10"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="I9" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="I9" s="8"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="I10" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="I10" s="8"/>
       <c r="K10" s="10"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="I11" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="I11" s="8"/>
       <c r="K11" s="10"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="I12" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="I12" s="8"/>
       <c r="K12" s="10"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="I13" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="I13" s="8"/>
       <c r="K13" s="10"/>
     </row>
     <row r="14" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="I14" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="I14" s="8"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="I15" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="I15" s="8"/>
       <c r="K15" s="10"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="I16" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="I16" s="8"/>
       <c r="K16" s="10"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="I17" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="I17" s="8"/>
       <c r="K17" s="10"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="F18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="I18" s="8"/>
       <c r="K18" s="10"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="I19" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="I19" s="8"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="I20" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="I20" s="8"/>
       <c r="K20" s="10"/>
     </row>
     <row r="21" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="I21" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="I21" s="8"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="I22" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="I22" s="8"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="I23" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="I23" s="8"/>
       <c r="K23" s="10"/>
     </row>
   </sheetData>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -132,6 +132,9 @@
     <t xml:space="preserve">Save and copy to old configuration data ==&gt; Test</t>
   </si>
   <si>
+    <t xml:space="preserve">Test on server</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tell new version → drag / drop</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t xml:space="preserve">Save to text file ==&gt; Test</t>
   </si>
   <si>
+    <t xml:space="preserve">change log.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">Update download links in forum</t>
   </si>
   <si>
@@ -155,6 +161,9 @@
     <t xml:space="preserve">Read from text file ==&gt; Test</t>
   </si>
   <si>
+    <t xml:space="preserve">Doc / Clean code </t>
+  </si>
+  <si>
     <t xml:space="preserve">6
 </t>
   </si>
@@ -162,6 +171,9 @@
     <t xml:space="preserve">Save (old) and copy to new configuration data ==&gt; Test</t>
   </si>
   <si>
+    <t xml:space="preserve">User Doc</t>
+  </si>
+  <si>
     <t xml:space="preserve">7
 </t>
   </si>
@@ -172,6 +184,9 @@
     <t xml:space="preserve">Save (old) to text file</t>
   </si>
   <si>
+    <t xml:space="preserve">Release →…</t>
+  </si>
+  <si>
     <t xml:space="preserve">8
 </t>
   </si>
@@ -179,9 +194,6 @@
     <t xml:space="preserve">Read (old) from text file ==&gt; Test</t>
   </si>
   <si>
-    <t xml:space="preserve">Test on server</t>
-  </si>
-  <si>
     <t xml:space="preserve">9
 </t>
   </si>
@@ -189,28 +201,16 @@
     <t xml:space="preserve">remove_OldConfigData ask for confirmation ==&gt; Test</t>
   </si>
   <si>
-    <t xml:space="preserve">change log.php</t>
-  </si>
-  <si>
     <t xml:space="preserve">10
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Doc / Clean code </t>
-  </si>
-  <si>
     <t xml:space="preserve">11
 </t>
   </si>
   <si>
-    <t xml:space="preserve">User Doc</t>
-  </si>
-  <si>
     <t xml:space="preserve">12
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release →…</t>
   </si>
   <si>
     <t xml:space="preserve">13
@@ -525,8 +525,8 @@
   </sheetPr>
   <dimension ref="A3:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -640,7 +640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
@@ -658,133 +658,134 @@
         <v>34</v>
       </c>
       <c r="H6" s="9"/>
+      <c r="K6" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="N6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="57.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="K7" s="0"/>
+      <c r="K7" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="L7" s="0"/>
       <c r="N7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="0"/>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="K8" s="0"/>
+      <c r="K8" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="L8" s="0"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="F9" s="0"/>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="K9" s="0"/>
+      <c r="K9" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="L9" s="0"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="K10" s="0"/>
+      <c r="K10" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="L10" s="0"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="G11" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="K11" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="0"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="K12" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="0"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="0"/>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="0"/>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="H15" s="9"/>
-      <c r="K15" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="K15" s="0"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
@@ -926,10 +927,10 @@
     </row>
     <row r="7" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>69</v>
@@ -940,7 +941,7 @@
     </row>
     <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>70</v>
@@ -954,10 +955,10 @@
     </row>
     <row r="9" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>72</v>
@@ -968,7 +969,7 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>73</v>
@@ -982,10 +983,10 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>75</v>
@@ -996,7 +997,7 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>76</v>
@@ -1007,7 +1008,7 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>77</v>
@@ -1018,7 +1019,7 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -1029,7 +1030,7 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>79</v>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -38,7 +38,13 @@
     <t xml:space="preserve">Release / Install</t>
   </si>
   <si>
-    <t xml:space="preserve">Config move</t>
+    <t xml:space="preserve">Config move back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config 2 move back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config move site</t>
   </si>
   <si>
     <t xml:space="preserve">Site: View gallery</t>
@@ -82,6 +88,9 @@
     <t xml:space="preserve">Repair Zone: image Db first element</t>
   </si>
   <si>
+    <t xml:space="preserve">Remove first tab in RSG sytem config view</t>
+  </si>
+  <si>
     <t xml:space="preserve">b) Image editor </t>
   </si>
   <si>
@@ -110,6 +119,9 @@
     <t xml:space="preserve">Copy old to new configuration data ==&gt; Test</t>
   </si>
   <si>
+    <t xml:space="preserve">Update config links to System RSG2 config</t>
+  </si>
+  <si>
     <t xml:space="preserve">a) After upload</t>
   </si>
   <si>
@@ -248,13 +260,22 @@
     <t xml:space="preserve">End of develop</t>
   </si>
   <si>
+    <t xml:space="preserve">PHP Storm: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Use JedChecker</t>
   </si>
   <si>
+    <t xml:space="preserve">Code cleanup</t>
+  </si>
+  <si>
     <t xml:space="preserve">Update change log.php</t>
   </si>
   <si>
     <t xml:space="preserve">Change log.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspect code</t>
   </si>
   <si>
     <t xml:space="preserve">Update Sql files</t>
@@ -297,7 +318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -333,6 +354,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFBA131A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF0066B3"/>
       <name val="Arial"/>
@@ -350,6 +379,13 @@
       <b val="true"/>
       <sz val="8"/>
       <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFBA131A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -397,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,23 +458,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,7 +553,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFBA131A"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -523,10 +567,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:N23"/>
+  <dimension ref="A3:P23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,13 +578,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="9" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="11" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="3" s="5" customFormat="true" ht="27.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -563,7 +607,7 @@
       <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -581,278 +625,294 @@
       <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="O3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="K4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="M4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="P4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
+    </row>
+    <row r="5" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="K5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="M5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="P5" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="K6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="M6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="K7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="0"/>
-      <c r="N7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="M7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="0"/>
+      <c r="P7" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="F8" s="0"/>
       <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="K8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="0"/>
+        <v>47</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="M8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="0"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="F9" s="0"/>
       <c r="G9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="K9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="M9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="K10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="0"/>
+        <v>54</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="M10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="G11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="K11" s="0"/>
+        <v>57</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="M11" s="0"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="G12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="K12" s="0"/>
+        <v>59</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="M12" s="0"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="H13" s="9"/>
-      <c r="K13" s="0"/>
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="10"/>
+      <c r="M13" s="0"/>
     </row>
     <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="H14" s="9"/>
-      <c r="K14" s="0"/>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="J14" s="10"/>
+      <c r="M14" s="0"/>
     </row>
     <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="H15" s="9"/>
-      <c r="K15" s="0"/>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="J15" s="10"/>
+      <c r="M15" s="0"/>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="F16" s="0"/>
-      <c r="H16" s="9"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-    </row>
-    <row r="17" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="6" t="s">
+      <c r="J16" s="10"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="6" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="6" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="H23" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="J23" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -870,245 +930,254 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:K23"/>
+  <dimension ref="A3:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="7" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="8" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="3" s="5" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="G18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="G20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="G21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="G22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="I10" s="8"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="I11" s="8"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="I16" s="8"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="0"/>
-      <c r="F18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="I22" s="8"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="K23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="J23" s="9"/>
+      <c r="L23" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve">Remove first tab in RSG sytem config view</t>
   </si>
   <si>
+    <t xml:space="preserve">Try jooMDD for examples</t>
+  </si>
+  <si>
     <t xml:space="preserve">b) Image editor </t>
   </si>
   <si>
@@ -144,6 +147,9 @@
     <t xml:space="preserve">Save and copy to old configuration data ==&gt; Test</t>
   </si>
   <si>
+    <t xml:space="preserve">Secure all inputs Attention arrays</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test on server</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
   <si>
     <t xml:space="preserve">4
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure input → image title, description …</t>
   </si>
   <si>
     <t xml:space="preserve">Improve layout of user information -&gt; button for RSGallery2 jump on both update and install</t>
@@ -569,8 +578,8 @@
   </sheetPr>
   <dimension ref="A3:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -632,7 +641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -656,170 +665,179 @@
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="M4" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="10"/>
       <c r="M5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" s="9"/>
       <c r="P5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J6" s="10"/>
       <c r="M6" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J7" s="10"/>
       <c r="M7" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N7" s="0"/>
       <c r="P7" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="F8" s="0"/>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J8" s="10"/>
       <c r="M8" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N8" s="0"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="F9" s="0"/>
       <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J9" s="10"/>
       <c r="M9" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J10" s="10"/>
       <c r="M10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J11" s="10"/>
       <c r="M11" s="0"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J12" s="10"/>
       <c r="M12" s="0"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -831,7 +849,7 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -840,7 +858,7 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -849,7 +867,7 @@
     </row>
     <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -860,7 +878,7 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -868,7 +886,7 @@
     </row>
     <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -876,7 +894,7 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -884,7 +902,7 @@
     </row>
     <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -892,7 +910,7 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -900,7 +918,7 @@
     </row>
     <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -908,7 +926,7 @@
     </row>
     <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -952,10 +970,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>4</v>
@@ -971,7 +989,7 @@
     </row>
     <row r="5" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="10"/>
       <c r="J5" s="9"/>
@@ -979,10 +997,10 @@
     </row>
     <row r="6" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" s="10"/>
       <c r="J6" s="9"/>
@@ -990,16 +1008,16 @@
     </row>
     <row r="7" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G7" s="10"/>
       <c r="J7" s="9"/>
@@ -1007,16 +1025,16 @@
     </row>
     <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G8" s="10"/>
       <c r="J8" s="9"/>
@@ -1024,13 +1042,13 @@
     </row>
     <row r="9" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G9" s="10"/>
       <c r="J9" s="9"/>
@@ -1038,13 +1056,13 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="10"/>
       <c r="J10" s="9"/>
@@ -1052,13 +1070,13 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G11" s="10"/>
       <c r="J11" s="9"/>
@@ -1066,10 +1084,10 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G12" s="10"/>
       <c r="J12" s="9"/>
@@ -1077,10 +1095,10 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G13" s="10"/>
       <c r="J13" s="9"/>
@@ -1088,10 +1106,10 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="10"/>
       <c r="J14" s="9"/>
@@ -1099,10 +1117,10 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G15" s="10"/>
       <c r="J15" s="9"/>
@@ -1110,10 +1128,10 @@
     </row>
     <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="10"/>
       <c r="J16" s="9"/>
@@ -1121,10 +1139,10 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G17" s="10"/>
       <c r="J17" s="9"/>
@@ -1132,7 +1150,7 @@
     </row>
     <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E18" s="0"/>
       <c r="G18" s="10"/>
@@ -1141,7 +1159,7 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G19" s="10"/>
       <c r="J19" s="9"/>
@@ -1149,7 +1167,7 @@
     </row>
     <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G20" s="10"/>
       <c r="J20" s="9"/>
@@ -1157,7 +1175,7 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G21" s="10"/>
       <c r="J21" s="9"/>
@@ -1165,7 +1183,7 @@
     </row>
     <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G22" s="10"/>
       <c r="J22" s="9"/>
@@ -1173,7 +1191,7 @@
     </row>
     <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G23" s="10"/>
       <c r="J23" s="9"/>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -187,6 +187,9 @@
   <si>
     <t xml:space="preserve">6
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joomla DOC about ajax handling</t>
   </si>
   <si>
     <t xml:space="preserve">Save (old) and copy to new configuration data ==&gt; Test</t>
@@ -578,8 +581,8 @@
   </sheetPr>
   <dimension ref="A3:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -783,61 +786,64 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F9" s="0"/>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="10"/>
       <c r="M9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="10"/>
       <c r="M10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J11" s="10"/>
       <c r="M11" s="0"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="G12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" s="10"/>
       <c r="M12" s="0"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -849,7 +855,7 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -858,7 +864,7 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -867,7 +873,7 @@
     </row>
     <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -878,7 +884,7 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -886,7 +892,7 @@
     </row>
     <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -894,7 +900,7 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -902,7 +908,7 @@
     </row>
     <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -910,7 +916,7 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -918,7 +924,7 @@
     </row>
     <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -926,7 +932,7 @@
     </row>
     <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -970,10 +976,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>4</v>
@@ -1000,7 +1006,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="10"/>
       <c r="J6" s="9"/>
@@ -1014,10 +1020,10 @@
         <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="10"/>
       <c r="J7" s="9"/>
@@ -1028,13 +1034,13 @@
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="10"/>
       <c r="J8" s="9"/>
@@ -1048,7 +1054,7 @@
         <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G9" s="10"/>
       <c r="J9" s="9"/>
@@ -1056,13 +1062,13 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" s="10"/>
       <c r="J10" s="9"/>
@@ -1070,13 +1076,13 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" s="10"/>
       <c r="J11" s="9"/>
@@ -1084,10 +1090,10 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" s="10"/>
       <c r="J12" s="9"/>
@@ -1095,10 +1101,10 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="10"/>
       <c r="J13" s="9"/>
@@ -1106,10 +1112,10 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="10"/>
       <c r="J14" s="9"/>
@@ -1117,10 +1123,10 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="10"/>
       <c r="J15" s="9"/>
@@ -1128,10 +1134,10 @@
     </row>
     <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="10"/>
       <c r="J16" s="9"/>
@@ -1139,10 +1145,10 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G17" s="10"/>
       <c r="J17" s="9"/>
@@ -1150,7 +1156,7 @@
     </row>
     <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="0"/>
       <c r="G18" s="10"/>
@@ -1159,7 +1165,7 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="10"/>
       <c r="J19" s="9"/>
@@ -1167,7 +1173,7 @@
     </row>
     <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="10"/>
       <c r="J20" s="9"/>
@@ -1175,7 +1181,7 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="10"/>
       <c r="J21" s="9"/>
@@ -1183,7 +1189,7 @@
     </row>
     <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="10"/>
       <c r="J22" s="9"/>
@@ -1191,7 +1197,7 @@
     </row>
     <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="10"/>
       <c r="J23" s="9"/>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fith\2018\RSG2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tasks juggle" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Repeated Tasks" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tasks juggle" sheetId="1" r:id="rId1"/>
+    <sheet name="Repeated Tasks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,48 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajax Upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release / Install</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config move back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config 2 move back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config move site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site: View gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site: View Slide show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J!4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn/Flip … image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSG2 Web page</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Ajax Upload</t>
+  </si>
+  <si>
+    <t>Release / Install</t>
+  </si>
+  <si>
+    <t>Config move back</t>
+  </si>
+  <si>
+    <t>Config 2 move back</t>
+  </si>
+  <si>
+    <t>Config move site</t>
+  </si>
+  <si>
+    <t>Site: View gallery</t>
+  </si>
+  <si>
+    <t>Site: View Slide show</t>
+  </si>
+  <si>
+    <t>J!4</t>
+  </si>
+  <si>
+    <t>Turn/Flip … image</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>RSG2 Web page</t>
   </si>
   <si>
     <t xml:space="preserve">RSG2 forum </t>
@@ -72,114 +76,111 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Edit image → double click on image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rename Maintenance “Consolidate image Database”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test FTP on server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New ICON , better Information pre/post 
+    <t>Edit image → double click on image</t>
+  </si>
+  <si>
+    <t>Test FTP on server</t>
+  </si>
+  <si>
+    <t>New ICON , better Information pre/post 
 TaskInstall.170121 .png</t>
   </si>
   <si>
-    <t xml:space="preserve">Repair Zone: image Db first element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove first tab in RSG sytem config view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try jooMDD for examples</t>
+    <t>Repair Zone: image Db first element</t>
+  </si>
+  <si>
+    <t>Remove first tab in RSG sytem config view</t>
+  </si>
+  <si>
+    <t>Try jooMDD for examples</t>
   </si>
   <si>
     <t xml:space="preserve">b) Image editor </t>
   </si>
   <si>
-    <t xml:space="preserve">Walk trough all pages without error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade to PHP 7</t>
+    <t>Walk trough all pages without error</t>
+  </si>
+  <si>
+    <t>Upgrade to PHP 7</t>
   </si>
   <si>
     <t xml:space="preserve">2
 </t>
   </si>
   <si>
-    <t xml:space="preserve">On Drag/drop upload vertical images same size ==&gt; image Properties not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for single left over installation files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test zip on server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve layout of user information -&gt; first install</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy old to new configuration data ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update config links to System RSG2 config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) After upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texts on first page, “Out new homepage“</t>
+    <t>On Drag/drop upload vertical images same size ==&gt; image Properties not</t>
+  </si>
+  <si>
+    <t>Check for single left over installation files</t>
+  </si>
+  <si>
+    <t>Test zip on server</t>
+  </si>
+  <si>
+    <t>Improve layout of user information -&gt; first install</t>
+  </si>
+  <si>
+    <t>Copy old to new configuration data ==&gt; Test</t>
+  </si>
+  <si>
+    <t>Update config links to System RSG2 config</t>
+  </si>
+  <si>
+    <t>a) After upload</t>
+  </si>
+  <si>
+    <t>Texts on first page, “Out new homepage“</t>
   </si>
   <si>
     <t xml:space="preserve">3
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Galleries List: sort by count not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upload model: Check which functions are still used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve layout of user information -&gt; update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save and copy to old configuration data ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure all inputs Attention arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test on server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell new version → drag / drop</t>
+    <t>Galleries List: sort by count not working</t>
+  </si>
+  <si>
+    <t>Upload model: Check which functions are still used</t>
+  </si>
+  <si>
+    <t>Improve layout of user information -&gt; update</t>
+  </si>
+  <si>
+    <t>Save and copy to old configuration data ==&gt; Test</t>
+  </si>
+  <si>
+    <t>Secure all inputs Attention arrays</t>
+  </si>
+  <si>
+    <t>Test on server</t>
+  </si>
+  <si>
+    <t>Tell new version → drag / drop</t>
   </si>
   <si>
     <t xml:space="preserve">4
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Secure input → image title, description …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve layout of user information -&gt; button for RSGallery2 jump on both update and install</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save to text file ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change log.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update download links in forum</t>
+    <t>Secure input → image title, description …</t>
+  </si>
+  <si>
+    <t>Improve layout of user information -&gt; button for RSGallery2 jump on both update and install</t>
+  </si>
+  <si>
+    <t>Save to text file ==&gt; Test</t>
+  </si>
+  <si>
+    <t>change log.php</t>
+  </si>
+  <si>
+    <t>Update download links in forum</t>
   </si>
   <si>
     <t xml:space="preserve">5
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Read from text file ==&gt; Test</t>
+    <t>Read from text file ==&gt; Test</t>
   </si>
   <si>
     <t xml:space="preserve">Doc / Clean code </t>
@@ -189,40 +190,40 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Joomla DOC about ajax handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save (old) and copy to new configuration data ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Doc</t>
+    <t>Joomla DOC about ajax handling</t>
+  </si>
+  <si>
+    <t>Save (old) and copy to new configuration data ==&gt; Test</t>
+  </si>
+  <si>
+    <t>User Doc</t>
   </si>
   <si>
     <t xml:space="preserve">7
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Release Ajax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save (old) to text file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release →…</t>
+    <t>Release Ajax</t>
+  </si>
+  <si>
+    <t>Save (old) to text file</t>
+  </si>
+  <si>
+    <t>Release →…</t>
   </si>
   <si>
     <t xml:space="preserve">8
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Read (old) from text file ==&gt; Test</t>
+    <t>Read (old) from text file ==&gt; Test</t>
   </si>
   <si>
     <t xml:space="preserve">9
 </t>
   </si>
   <si>
-    <t xml:space="preserve">remove_OldConfigData ask for confirmation ==&gt; Test</t>
+    <t>remove_OldConfigData ask for confirmation ==&gt; Test</t>
   </si>
   <si>
     <t xml:space="preserve">10
@@ -269,88 +270,85 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">End of develop</t>
+    <t>End of develop</t>
   </si>
   <si>
     <t xml:space="preserve">PHP Storm: </t>
   </si>
   <si>
-    <t xml:space="preserve">Use JedChecker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code cleanup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update change log.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change log.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspect code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Sql files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Version info and date in rsgallery2.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Doc →home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check in to github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create release zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create github release (add zip)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add info to RSG2 Update Server xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert update in JED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info on home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info on forum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update download links in forum first page</t>
+    <t>Use JedChecker</t>
+  </si>
+  <si>
+    <t>Code cleanup</t>
+  </si>
+  <si>
+    <t>Update change log.php</t>
+  </si>
+  <si>
+    <t>Change log.php</t>
+  </si>
+  <si>
+    <t>Inspect code</t>
+  </si>
+  <si>
+    <t>Update Sql files</t>
+  </si>
+  <si>
+    <t>Update Version info and date in rsgallery2.xml</t>
+  </si>
+  <si>
+    <t>User Doc →home page</t>
+  </si>
+  <si>
+    <t>Check in to github</t>
+  </si>
+  <si>
+    <t>Create release zip</t>
+  </si>
+  <si>
+    <t>Create github release (add zip)</t>
+  </si>
+  <si>
+    <t>Add info to RSG2 Update Server xml</t>
+  </si>
+  <si>
+    <t>Insert update in JED</t>
+  </si>
+  <si>
+    <t>Info on home page</t>
+  </si>
+  <si>
+    <t>Info on forum</t>
+  </si>
+  <si>
+    <t>Update download links in forum first page</t>
+  </si>
+  <si>
+    <t>Install: -&gt; write file, move comnfig</t>
+  </si>
+  <si>
+    <t>Rename in Maintenance “Consolidate image Database”</t>
+  </si>
+  <si>
+    <t>Menu Select gallery: a) Show gallery names if exist</t>
+  </si>
+  <si>
+    <t>Menu Select gallery: b) Text root gallery …</t>
+  </si>
+  <si>
+    <t>Menu select slideshow: Show gallery names …</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -359,14 +357,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFBA131A"/>
       <name val="Arial"/>
@@ -381,14 +379,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <strike val="true"/>
+      <strike/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
@@ -412,7 +410,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -420,97 +418,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -569,34 +526,308 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AMK23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="11" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="11.52"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="23" width="13.85546875" style="1" customWidth="1"/>
+    <col min="24" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -644,305 +875,312 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
+      <c r="I5" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="J5" s="10"/>
       <c r="M5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="9"/>
       <c r="P5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J6" s="10"/>
       <c r="M6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="J7" s="10"/>
       <c r="M7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7"/>
+      <c r="P7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="0"/>
-      <c r="P7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="J8" s="10"/>
       <c r="M8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="N8" s="0"/>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="0"/>
-      <c r="G9" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="10"/>
       <c r="M9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="N9" s="0"/>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="J10" s="10"/>
       <c r="M10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="N10" s="0"/>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="M11" s="0"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="M12" s="0"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+      <c r="G13"/>
+      <c r="H13"/>
       <c r="I13" s="12"/>
       <c r="J13" s="10"/>
-      <c r="M13" s="0"/>
-    </row>
-    <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="J14" s="10"/>
-      <c r="M14" s="0"/>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="J15" s="10"/>
-      <c r="M15" s="0"/>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="F16" s="0"/>
+      <c r="F16"/>
       <c r="J16" s="10"/>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-    </row>
-    <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="J23" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.39375" right="0.39375" top="1.24930555555556" bottom="0.659027777777778" header="0.984027777777778" footer="0.39375"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="1.2493055555555601" bottom="0.65902777777777799" header="0.98402777777777795" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -950,42 +1188,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AMK23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="8" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="11.52"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="19" width="13.85546875" style="1" customWidth="1"/>
+    <col min="20" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -993,221 +1228,220 @@
       <c r="J4" s="9"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="10"/>
       <c r="J5" s="9"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="10"/>
       <c r="J6" s="9"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="G7" s="10"/>
       <c r="J7" s="9"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="G8" s="10"/>
       <c r="J8" s="9"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="10"/>
       <c r="J9" s="9"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="G10" s="10"/>
       <c r="J10" s="9"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="10"/>
       <c r="J11" s="9"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="10"/>
       <c r="J12" s="9"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="10"/>
       <c r="J13" s="9"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="10"/>
       <c r="J14" s="9"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="10"/>
       <c r="J15" s="9"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="10"/>
       <c r="J16" s="9"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="10"/>
       <c r="J17" s="9"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="0"/>
+        <v>68</v>
+      </c>
+      <c r="E18"/>
       <c r="G18" s="10"/>
       <c r="J18" s="9"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="10"/>
       <c r="J19" s="9"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="10"/>
       <c r="J20" s="9"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="10"/>
       <c r="J21" s="9"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="10"/>
       <c r="J22" s="9"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="10"/>
       <c r="J23" s="9"/>
       <c r="L23" s="11"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fith\2018\RSG2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tasks juggle" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Repeated Tasks" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tasks juggle" sheetId="1" r:id="rId1"/>
+    <sheet name="Repeated Tasks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,48 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajax Upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release / Install</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config move back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config 2 move back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config move site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site: View gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site: View Slide show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J!4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn/Flip … image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSG2 Web page</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Ajax Upload</t>
+  </si>
+  <si>
+    <t>Release / Install</t>
+  </si>
+  <si>
+    <t>Config move back</t>
+  </si>
+  <si>
+    <t>Config 2 move back</t>
+  </si>
+  <si>
+    <t>Config move site</t>
+  </si>
+  <si>
+    <t>Site: View gallery</t>
+  </si>
+  <si>
+    <t>Site: View Slide show</t>
+  </si>
+  <si>
+    <t>J!4</t>
+  </si>
+  <si>
+    <t>Turn/Flip … image</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>RSG2 Web page</t>
   </si>
   <si>
     <t xml:space="preserve">RSG2 forum </t>
@@ -72,129 +76,126 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Edit image → double click on image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rename in Maintenance “Consolidate image Database”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test FTP on server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New ICON , better Information pre/post 
+    <t>Edit image → double click on image</t>
+  </si>
+  <si>
+    <t>Rename in Maintenance “Consolidate image Database”</t>
+  </si>
+  <si>
+    <t>Test FTP on server</t>
+  </si>
+  <si>
+    <t>New ICON , better Information pre/post 
 TaskInstall.170121 .png</t>
   </si>
   <si>
-    <t xml:space="preserve">Repair Zone: image Db first element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove first tab in RSG sytem config view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try jooMDD for examples</t>
+    <t>Repair Zone: image Db first element</t>
+  </si>
+  <si>
+    <t>Remove first tab in RSG sytem config view</t>
+  </si>
+  <si>
+    <t>Try jooMDD for examples</t>
   </si>
   <si>
     <t xml:space="preserve">b) Image editor </t>
   </si>
   <si>
-    <t xml:space="preserve">Walk trough all pages without error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade to PHP 7</t>
+    <t>Walk trough all pages without error</t>
+  </si>
+  <si>
+    <t>Upgrade to PHP 7</t>
   </si>
   <si>
     <t xml:space="preserve">2
 </t>
   </si>
   <si>
-    <t xml:space="preserve">On Drag/drop upload vertical images same size ==&gt; image Properties not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for single left over installation files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test zip on server: Nur einmal möglich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve layout of user information -&gt; first install</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy old to new configuration data ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update config links to System RSG2 config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Install: -&gt; write file, move config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) After upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texts on first page, “Out new homepage“</t>
+    <t>On Drag/drop upload vertical images same size ==&gt; image Properties not</t>
+  </si>
+  <si>
+    <t>Check for single left over installation files</t>
+  </si>
+  <si>
+    <t>Improve layout of user information -&gt; first install</t>
+  </si>
+  <si>
+    <t>Copy old to new configuration data ==&gt; Test</t>
+  </si>
+  <si>
+    <t>Update config links to System RSG2 config</t>
+  </si>
+  <si>
+    <t>Install: -&gt; write file, move config</t>
+  </si>
+  <si>
+    <t>a) After upload</t>
+  </si>
+  <si>
+    <t>Texts on first page, “Out new homepage“</t>
   </si>
   <si>
     <t xml:space="preserve">3
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Galleries List: sort by count not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu select slideshow: Show gallery names …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upload model: Check which functions are still used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve layout of user information -&gt; update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save and copy to old configuration data ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure all inputs Attention arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test on server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell new version → drag / drop</t>
+    <t>Galleries List: sort by count not working</t>
+  </si>
+  <si>
+    <t>Menu select slideshow: Show gallery names …</t>
+  </si>
+  <si>
+    <t>Upload model: Check which functions are still used</t>
+  </si>
+  <si>
+    <t>Improve layout of user information -&gt; update</t>
+  </si>
+  <si>
+    <t>Save and copy to old configuration data ==&gt; Test</t>
+  </si>
+  <si>
+    <t>Secure all inputs Attention arrays</t>
+  </si>
+  <si>
+    <t>Test on server</t>
+  </si>
+  <si>
+    <t>Tell new version → drag / drop</t>
   </si>
   <si>
     <t xml:space="preserve">4
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Select gallery: a) Show gallery names if exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure input → image title, description …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve layout of user information -&gt; button for RSGallery2 jump on both update and install</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save to text file ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change log.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update download links in forum</t>
+    <t>Menu Select gallery: a) Show gallery names if exist</t>
+  </si>
+  <si>
+    <t>Secure input → image title, description …</t>
+  </si>
+  <si>
+    <t>Improve layout of user information -&gt; button for RSGallery2 jump on both update and install</t>
+  </si>
+  <si>
+    <t>Save to text file ==&gt; Test</t>
+  </si>
+  <si>
+    <t>change log.php</t>
+  </si>
+  <si>
+    <t>Update download links in forum</t>
   </si>
   <si>
     <t xml:space="preserve">5
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Select gallery: b) Text root gallery …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fix: Upload button only when gallery is selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read from text file ==&gt; Test</t>
+    <t>Menu Select gallery: b) Text root gallery …</t>
+  </si>
+  <si>
+    <t>fix: Upload button only when gallery is selected</t>
+  </si>
+  <si>
+    <t>Read from text file ==&gt; Test</t>
   </si>
   <si>
     <t xml:space="preserve">Doc / Clean code </t>
@@ -204,56 +205,56 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Joomla DOC about ajax handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save (old) and copy to new configuration data ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Doc</t>
+    <t>Joomla DOC about ajax handling</t>
+  </si>
+  <si>
+    <t>Save (old) and copy to new configuration data ==&gt; Test</t>
+  </si>
+  <si>
+    <t>User Doc</t>
   </si>
   <si>
     <t xml:space="preserve">7
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Release Ajax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save (old) to text file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release →…</t>
+    <t>Release Ajax</t>
+  </si>
+  <si>
+    <t>Save (old) to text file</t>
+  </si>
+  <si>
+    <t>Release →…</t>
   </si>
   <si>
     <t xml:space="preserve">8
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Exchange upload zip button position legacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read (old) from text file ==&gt; Test</t>
+    <t>Exchange upload zip button position legacy</t>
+  </si>
+  <si>
+    <t>Read (old) from text file ==&gt; Test</t>
   </si>
   <si>
     <t xml:space="preserve">9
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Remove multiple galleries in upload call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove_OldConfigData ask for confirmation ==&gt; Test</t>
+    <t>Remove multiple galleries in upload call</t>
+  </si>
+  <si>
+    <t>remove_OldConfigData ask for confirmation ==&gt; Test</t>
   </si>
   <si>
     <t xml:space="preserve">10
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Test: Multiple galleries in upload call FTP / SERVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance: call view config old 2</t>
+    <t>Test: Multiple galleries in upload call FTP / SERVER</t>
+  </si>
+  <si>
+    <t>Maintenance: call view config old 2</t>
   </si>
   <si>
     <t xml:space="preserve">11
@@ -296,88 +297,79 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">End of develop</t>
+    <t>End of develop</t>
   </si>
   <si>
     <t xml:space="preserve">PHP Storm: </t>
   </si>
   <si>
-    <t xml:space="preserve">Use JedChecker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code cleanup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update change log.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change log.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspect code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Sql files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Version info and date in rsgallery2.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Doc →home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check in to github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create release zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create github release (add zip)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add info to RSG2 Update Server xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert update in JED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info on home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info on forum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update download links in forum first page</t>
+    <t>Use JedChecker</t>
+  </si>
+  <si>
+    <t>Code cleanup</t>
+  </si>
+  <si>
+    <t>Update change log.php</t>
+  </si>
+  <si>
+    <t>Change log.php</t>
+  </si>
+  <si>
+    <t>Inspect code</t>
+  </si>
+  <si>
+    <t>Update Sql files</t>
+  </si>
+  <si>
+    <t>Update Version info and date in rsgallery2.xml</t>
+  </si>
+  <si>
+    <t>User Doc →home page</t>
+  </si>
+  <si>
+    <t>Check in to github</t>
+  </si>
+  <si>
+    <t>Create release zip</t>
+  </si>
+  <si>
+    <t>Create github release (add zip)</t>
+  </si>
+  <si>
+    <t>Add info to RSG2 Update Server xml</t>
+  </si>
+  <si>
+    <t>Insert update in JED</t>
+  </si>
+  <si>
+    <t>Info on home page</t>
+  </si>
+  <si>
+    <t>Info on forum</t>
+  </si>
+  <si>
+    <t>Update download links in forum first page</t>
+  </si>
+  <si>
+    <t>Check changed files 4 Doc-umentation</t>
+  </si>
+  <si>
+    <t>Test zip on server: Nur einmal möglich ==&gt; do debug</t>
+  </si>
+  <si>
+    <t>Test legacy with single gallery already set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -386,14 +378,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFBA131A"/>
       <name val="Arial"/>
@@ -401,14 +393,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <strike val="true"/>
+      <strike/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
@@ -439,7 +431,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -447,97 +439,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -596,34 +547,308 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AMK23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="11" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="11.57"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="23" width="13.85546875" style="1" customWidth="1"/>
+    <col min="24" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="5" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,7 +896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -708,7 +933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
@@ -719,264 +944,269 @@
         <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="J5" s="9"/>
       <c r="M5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="8"/>
       <c r="P5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="J6" s="9"/>
       <c r="M6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="J7" s="9"/>
       <c r="M7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J8" s="9"/>
       <c r="M8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="J9" s="9"/>
       <c r="M9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="J10" s="9"/>
       <c r="M10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
+      <c r="E14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
+      <c r="E15" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:10" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="J23" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.39375" right="0.39375" top="1.24930555555556" bottom="0.659027777777778" header="0.984027777777778" footer="0.39375"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="1.2493055555555601" bottom="0.65902777777777799" header="0.98402777777777795" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -984,42 +1214,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AMK23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="E13 D8"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" activeCellId="1" sqref="E13 D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="8" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="11.57"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="19" width="13.85546875" style="1" customWidth="1"/>
+    <col min="20" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="5" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1254,7 @@
       <c r="J4" s="8"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
@@ -1035,212 +1262,211 @@
       <c r="J5" s="8"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="9"/>
       <c r="J6" s="8"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="G7" s="9"/>
       <c r="J7" s="8"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G8" s="9"/>
       <c r="J8" s="8"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="8"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G10" s="9"/>
       <c r="J10" s="8"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="9"/>
       <c r="J11" s="8"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="9"/>
       <c r="J12" s="8"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="9"/>
       <c r="J13" s="8"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="9"/>
       <c r="J14" s="8"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="9"/>
       <c r="J15" s="8"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="9"/>
       <c r="J16" s="8"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="9"/>
       <c r="J17" s="8"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="9"/>
       <c r="J18" s="8"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="9"/>
       <c r="J19" s="8"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="9"/>
       <c r="J20" s="8"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="9"/>
       <c r="J21" s="8"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="9"/>
       <c r="J22" s="8"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:12" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="9"/>
       <c r="J23" s="8"/>
       <c r="L23" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">Rename in Maintenance “Consolidate image Database”</t>
   </si>
   <si>
-    <t xml:space="preserve"> Check session id</t>
+    <t xml:space="preserve">Limit parallel uploaded files</t>
   </si>
   <si>
     <t xml:space="preserve">New ICON , better Information pre/post 
@@ -146,128 +146,140 @@
     <t xml:space="preserve">Check for single left over installation files</t>
   </si>
   <si>
+    <t xml:space="preserve">Upload 50 original images on edge, chrome, firefiox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve layout of user information -&gt; first install</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy old to new configuration data ==&gt; Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update config links to System RSG2 config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install: -&gt; write file, move config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) After upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!!! HTTPS !!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texts on first page, “Out new homepage“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galleries List: sort by count not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu select slideshow: Show gallery names …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info about needs update plg and modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve layout of user information -&gt; update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save and copy to old configuration data ==&gt; Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure all inputs Attention arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test on server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell new version → drag / drop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images view: Select gallery → double select item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Select gallery: a) Show gallery names if exist</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test zip on server: Nur einmal möglich ==&gt; do debug</t>
   </si>
   <si>
-    <t xml:space="preserve">Improve layout of user information -&gt; first install</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy old to new configuration data ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update config links to System RSG2 config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Install: -&gt; write file, move config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) After upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!!! HTTPS !!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texts on first page, “Out new homepage“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galleries List: sort by count not working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu select slideshow: Show gallery names …</t>
+    <t xml:space="preserve">Improve layout of user information -&gt; button for RSGallery2 jump on both update and install</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save to text file ==&gt; Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change log.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update download links in forum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Select gallery: b) Text root gallery …</t>
   </si>
   <si>
     <t xml:space="preserve">Check changed files 4 Doc-umentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Improve layout of user information -&gt; update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save and copy to old configuration data ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure all inputs Attention arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test on server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell new version → drag / drop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Select gallery: a) Show gallery names if exist</t>
+    <t xml:space="preserve">Read from text file ==&gt; Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc / Clean code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6
+</t>
   </si>
   <si>
     <t xml:space="preserve">Joomla DOC about ajax handling</t>
   </si>
   <si>
-    <t xml:space="preserve">Improve layout of user information -&gt; button for RSGallery2 jump on both update and install</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save to text file ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change log.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update download links in forum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Select gallery: b) Text root gallery …</t>
+    <t xml:space="preserve">Save (old) and copy to new configuration data ==&gt; Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7
+</t>
   </si>
   <si>
     <t xml:space="preserve">Release Drag/Drop Ajax Upload</t>
   </si>
   <si>
-    <t xml:space="preserve">Read from text file ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc / Clean code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6
+    <t xml:space="preserve">Save (old) to text file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release →…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8
 </t>
   </si>
   <si>
     <t xml:space="preserve">Secure: uploadAjaxSingleFile: check token …</t>
   </si>
   <si>
-    <t xml:space="preserve">Save (old) and copy to new configuration data ==&gt; Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save (old) to text file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release →…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Read (old) from text file ==&gt; Test</t>
   </si>
   <si>
     <t xml:space="preserve">9
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check session id</t>
   </si>
   <si>
     <t xml:space="preserve">remove_OldConfigData ask for confirmation ==&gt; Test</t>
@@ -402,7 +414,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -441,14 +453,6 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFBA131A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF0066B3"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -525,7 +529,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -559,26 +563,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -665,8 +665,8 @@
   </sheetPr>
   <dimension ref="A3:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -678,6 +678,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="11" style="1" width="13.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="23" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="3" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +736,7 @@
       </c>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -751,18 +752,18 @@
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
       <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -771,7 +772,7 @@
       <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Q4" s="3" t="s">
@@ -782,17 +783,17 @@
       </c>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -807,11 +808,11 @@
       <c r="I5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="M5" s="9" t="s">
+      <c r="J5" s="9"/>
+      <c r="M5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="3" t="s">
         <v>40</v>
       </c>
@@ -821,7 +822,7 @@
       <c r="R5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
@@ -843,8 +844,8 @@
       <c r="H6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="M6" s="9" t="s">
+      <c r="J6" s="9"/>
+      <c r="M6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="P6" s="3" t="s">
@@ -856,228 +857,239 @@
       <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="E7" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="M7" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="J7" s="9"/>
+      <c r="M7" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="P7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="J8" s="9"/>
       <c r="M8" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="J9" s="9"/>
       <c r="M9" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="M10" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="J11" s="9"/>
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="0"/>
+      <c r="E12" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="J12" s="9"/>
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="0"/>
       <c r="G13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="9"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="9"/>
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="J15" s="9"/>
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="J16" s="10"/>
+      <c r="J16" s="9"/>
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="9"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="10"/>
+      <c r="E18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="9"/>
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="10"/>
+      <c r="E19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="9"/>
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="10"/>
+      <c r="E20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="9"/>
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="10"/>
+      <c r="E21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="9"/>
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="10"/>
+      <c r="E22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="9"/>
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="10"/>
+      <c r="E23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="9"/>
       <c r="AMJ23" s="0"/>
     </row>
   </sheetData>
@@ -1113,15 +1125,15 @@
   </cols>
   <sheetData>
     <row r="3" s="5" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>4</v>
@@ -1131,28 +1143,28 @@
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="J4" s="9"/>
-      <c r="L4" s="11"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="J5" s="9"/>
-      <c r="L5" s="11"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="J6" s="9"/>
-      <c r="L6" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
@@ -1162,187 +1174,187 @@
         <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="J7" s="9"/>
-      <c r="L7" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="J8" s="9"/>
-      <c r="L8" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="L9" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="L10" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="J11" s="9"/>
-      <c r="L11" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="L12" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="L13" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="J14" s="9"/>
-      <c r="L14" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="L15" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="L16" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="L17" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="J18" s="9"/>
-      <c r="L18" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="J19" s="9"/>
-      <c r="L19" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="J20" s="9"/>
-      <c r="L20" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="J21" s="9"/>
-      <c r="L21" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="J22" s="9"/>
-      <c r="L22" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="J23" s="9"/>
-      <c r="L23" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="L23" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -92,6 +92,12 @@
     <t xml:space="preserve">Automate</t>
   </si>
   <si>
+    <t xml:space="preserve">MOD Latest Galleries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod Thumb Scroller</t>
+  </si>
+  <si>
     <t xml:space="preserve">1
 </t>
   </si>
@@ -134,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">@since version: empty use rsg *.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github doc parameters in *.md and shown text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not ready at all</t>
   </si>
   <si>
     <t xml:space="preserve">2
@@ -665,8 +677,8 @@
   </sheetPr>
   <dimension ref="A3:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -734,248 +746,260 @@
       <c r="R3" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="S3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
       <c r="L4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="48.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J5" s="9"/>
       <c r="M5" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="29.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J6" s="9"/>
       <c r="M6" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J7" s="9"/>
       <c r="M7" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9"/>
       <c r="M8" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9"/>
       <c r="M9" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J10" s="9"/>
       <c r="M10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J11" s="9"/>
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J12" s="9"/>
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="0"/>
       <c r="G13" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="9"/>
@@ -983,7 +1007,7 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -992,19 +1016,19 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J15" s="9"/>
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1013,7 +1037,7 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1022,72 +1046,72 @@
     </row>
     <row r="18" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J18" s="9"/>
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J19" s="9"/>
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J20" s="9"/>
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J21" s="9"/>
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J22" s="9"/>
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J23" s="9"/>
       <c r="AMJ23" s="0"/>
@@ -1130,10 +1154,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>4</v>
@@ -1141,7 +1165,7 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="9"/>
       <c r="J4" s="8"/>
@@ -1149,7 +1173,7 @@
     </row>
     <row r="5" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" s="9"/>
       <c r="J5" s="8"/>
@@ -1157,10 +1181,10 @@
     </row>
     <row r="6" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G6" s="9"/>
       <c r="J6" s="8"/>
@@ -1168,16 +1192,16 @@
     </row>
     <row r="7" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9"/>
       <c r="J7" s="8"/>
@@ -1185,16 +1209,16 @@
     </row>
     <row r="8" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G8" s="9"/>
       <c r="J8" s="8"/>
@@ -1202,13 +1226,13 @@
     </row>
     <row r="9" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="8"/>
@@ -1216,13 +1240,13 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G10" s="9"/>
       <c r="J10" s="8"/>
@@ -1230,13 +1254,13 @@
     </row>
     <row r="11" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G11" s="9"/>
       <c r="J11" s="8"/>
@@ -1244,10 +1268,10 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G12" s="9"/>
       <c r="J12" s="8"/>
@@ -1255,10 +1279,10 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G13" s="9"/>
       <c r="J13" s="8"/>
@@ -1266,10 +1290,10 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G14" s="9"/>
       <c r="J14" s="8"/>
@@ -1277,10 +1301,10 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G15" s="9"/>
       <c r="J15" s="8"/>
@@ -1288,10 +1312,10 @@
     </row>
     <row r="16" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G16" s="9"/>
       <c r="J16" s="8"/>
@@ -1299,10 +1323,10 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G17" s="9"/>
       <c r="J17" s="8"/>
@@ -1310,7 +1334,7 @@
     </row>
     <row r="18" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G18" s="9"/>
       <c r="J18" s="8"/>
@@ -1318,7 +1342,7 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G19" s="9"/>
       <c r="J19" s="8"/>
@@ -1326,7 +1350,7 @@
     </row>
     <row r="20" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G20" s="9"/>
       <c r="J20" s="8"/>
@@ -1334,7 +1358,7 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G21" s="9"/>
       <c r="J21" s="8"/>
@@ -1342,7 +1366,7 @@
     </row>
     <row r="22" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G22" s="9"/>
       <c r="J22" s="8"/>
@@ -1350,7 +1374,7 @@
     </row>
     <row r="23" s="3" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G23" s="9"/>
       <c r="J23" s="8"/>

--- a/.tasks/TaskJuggle.xlsx
+++ b/.tasks/TaskJuggle.xlsx
@@ -426,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -492,6 +492,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFBA131A"/>
       <name val="Arial"/>
@@ -541,7 +548,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -591,6 +598,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,8 +688,8 @@
   </sheetPr>
   <dimension ref="A3:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -925,13 +936,13 @@
       </c>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1001,7 +1012,7 @@
       <c r="G13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="9"/>
       <c r="AMJ13" s="0"/>
     </row>
@@ -1149,7 +1160,7 @@
   </cols>
   <sheetData>
     <row r="3" s="5" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
